--- a/text.xlsx
+++ b/text.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
     <sheet name="Vision" sheetId="3" r:id="rId2"/>
     <sheet name="Values" sheetId="2" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mission!$A$1:$G$465</definedName>
@@ -25,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Values!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Vision!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4549" uniqueCount="293">
   <si>
     <t>Faculty</t>
   </si>
@@ -937,6 +938,18 @@
   </si>
   <si>
     <t>Students</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Unique count of respondents across all three items</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1092,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,8 +1272,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1390,6 +1409,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1435,7 +1472,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1447,6 +1484,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1773,8 +1823,8 @@
   </sheetPr>
   <dimension ref="A1:G465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7606,9 +7656,7 @@
   </sheetPr>
   <dimension ref="A1:H465"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13330,7 +13378,7 @@
   <dimension ref="A1:G465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18827,4 +18875,171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="6">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>69</v>
+      </c>
+      <c r="E13" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="7">
+        <v>82</v>
+      </c>
+      <c r="D14" s="7">
+        <v>101</v>
+      </c>
+      <c r="E14" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>